--- a/public/resources/テンプレート.xlsx
+++ b/public/resources/テンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsui-h\github\html\frontend\public\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC83D8CC-1941-41A2-9F3A-DBA4B0AEFC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B7B1E-F266-4471-896C-E276F8E6DBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="1335" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -349,106 +349,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>__name__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>住所　</t>
   </si>
   <si>
-    <t>__address__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__date__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__start__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__end__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>号・</t>
-  </si>
-  <si>
-    <t>__option__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__doc_number__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__doc_date__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__city_date__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__area__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__place__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__owner_name__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__owner_address__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__iseki_name__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__iseki_type__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__iseki_current__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__iseki_era__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__guidance__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__construction_name__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__construction_address__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__site_name__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__site_address__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__site_main__</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>__site_content__</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>①　太線内は届出・通知者が記入。
@@ -526,6 +430,102 @@
     <rPh sb="69" eb="71">
       <t>キニュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**created</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -824,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -836,46 +836,160 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -886,60 +1000,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -949,83 +1015,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B37AE41-FF5C-414A-A782-6451497C1DC2}">
   <dimension ref="A1:AO40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:X2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1361,16 +1364,16 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
+      <c r="Q2" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
     </row>
     <row r="3" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1442,19 +1445,19 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="Q5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
     </row>
     <row r="6" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -1475,15 +1478,15 @@
         <v>25</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="Q6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
       <c r="X6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1525,7 +1528,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="1"/>
@@ -1569,59 +1572,59 @@
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="AO10" s="7"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="AO10" s="5"/>
     </row>
     <row r="11" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
     </row>
     <row r="12" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1648,7 +1651,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Z12" s="8"/>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1689,12 +1692,12 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1705,40 +1708,40 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="13"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="40"/>
     </row>
     <row r="16" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -1767,514 +1770,514 @@
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15">
+      <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="58"/>
+    </row>
+    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="60"/>
+    </row>
+    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="43">
+        <v>3</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="36"/>
+    </row>
+    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="44"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="36"/>
+    </row>
+    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>4</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="20"/>
-    </row>
-    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="52"/>
+    </row>
+    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="63"/>
+    </row>
+    <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="63"/>
+    </row>
+    <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="33"/>
+    </row>
+    <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>5</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="55"/>
+    </row>
+    <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="33"/>
+    </row>
+    <row r="27" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="43">
+        <v>6</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="31"/>
+    </row>
+    <row r="28" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="44"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="33"/>
+    </row>
+    <row r="29" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="43">
         <v>7</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="27"/>
-    </row>
-    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28">
-        <v>3</v>
-      </c>
-      <c r="B19" s="29" t="s">
+      <c r="B29" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="31"/>
+    </row>
+    <row r="30" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="44"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="33"/>
+    </row>
+    <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
         <v>8</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="24"/>
-    </row>
-    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="24"/>
-    </row>
-    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15">
-        <v>4</v>
-      </c>
-      <c r="B21" s="31" t="s">
+      <c r="B31" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="11">
         <v>9</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="35"/>
-    </row>
-    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37" t="s">
+      <c r="N31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="36"/>
+    </row>
+    <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="26">
         <v>10</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="41"/>
-    </row>
-    <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="41"/>
-    </row>
-    <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="50"/>
-    </row>
-    <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15">
-        <v>5</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="51" t="s">
+      <c r="B32" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="53"/>
-    </row>
-    <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="50"/>
-    </row>
-    <row r="27" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28">
-        <v>6</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="59"/>
-    </row>
-    <row r="28" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="50"/>
-    </row>
-    <row r="29" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28">
-        <v>7</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="59"/>
-    </row>
-    <row r="30" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="50"/>
-    </row>
-    <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
-        <v>8</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="21">
-        <v>9</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="24"/>
-    </row>
-    <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="64">
-        <v>10</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="24"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="36"/>
     </row>
     <row r="33" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -2303,64 +2306,64 @@
       <c r="X33" s="1"/>
     </row>
     <row r="34" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="24"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="36"/>
     </row>
     <row r="35" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
     </row>
     <row r="36" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
@@ -2510,11 +2513,6 @@
     <mergeCell ref="H27:X27"/>
     <mergeCell ref="H28:X28"/>
     <mergeCell ref="E26:X26"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="B19:D20"/>
     <mergeCell ref="Q6:W6"/>
     <mergeCell ref="Q5:X5"/>
     <mergeCell ref="M15:X15"/>
@@ -2524,11 +2522,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H29:X29"/>
-    <mergeCell ref="H30:X30"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="Q31:X31"/>
-    <mergeCell ref="N31:P31"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:X21"/>
     <mergeCell ref="E25:X25"/>
@@ -2538,6 +2531,16 @@
     <mergeCell ref="M18:X18"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H29:X29"/>
+    <mergeCell ref="H30:X30"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="Q31:X31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="B19:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.82677165354330717" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/resources/テンプレート.xlsx
+++ b/public/resources/テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsui-h\github\html\frontend\public\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B7B1E-F266-4471-896C-E276F8E6DBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D16A8F-E6F2-419C-AA21-125F4EEC719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="1335" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -907,12 +907,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -925,13 +967,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -952,18 +988,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -985,9 +1009,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1000,12 +1021,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1013,21 +1028,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B37AE41-FF5C-414A-A782-6451497C1DC2}">
   <dimension ref="A1:AO40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1364,16 +1364,16 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
     </row>
     <row r="3" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1448,16 +1448,16 @@
         <v>26</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
     </row>
     <row r="6" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -1478,15 +1478,15 @@
         <v>25</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
       <c r="X6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1572,59 +1572,59 @@
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
       <c r="AO10" s="5"/>
     </row>
     <row r="11" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
     </row>
     <row r="12" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1712,36 +1712,36 @@
         <v>2</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="38" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="40"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="52"/>
     </row>
     <row r="16" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -1773,161 +1773,161 @@
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="56" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="58"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="65"/>
     </row>
     <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>2</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="34" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="60"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43">
+      <c r="A19" s="31">
         <v>3</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="34" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35" t="s">
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="36"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="41"/>
     </row>
     <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="34" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35" t="s">
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="36"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="41"/>
     </row>
     <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="52"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="60"/>
     </row>
     <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
@@ -1936,28 +1936,28 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="63"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="68"/>
     </row>
     <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
@@ -1966,28 +1966,28 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="63"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="68"/>
     </row>
     <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
@@ -1996,60 +1996,60 @@
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="33"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="47"/>
     </row>
     <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>5</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="53" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="55"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="62"/>
     </row>
     <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
@@ -2058,226 +2058,226 @@
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="33"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="47"/>
     </row>
     <row r="27" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43">
+      <c r="A27" s="31">
         <v>6</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="41" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="45"/>
     </row>
     <row r="28" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="67" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="32" t="s">
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="33"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="47"/>
     </row>
     <row r="29" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="43">
+      <c r="A29" s="31">
         <v>7</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="31"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="45"/>
     </row>
     <row r="30" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="33"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="47"/>
     </row>
     <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>8</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="34" t="s">
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="41"/>
       <c r="M31" s="11">
         <v>9</v>
       </c>
-      <c r="N31" s="28" t="s">
+      <c r="N31" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="34" t="s">
+      <c r="O31" s="37"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="36"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="41"/>
     </row>
     <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>10</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="34" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="36"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="41"/>
     </row>
     <row r="33" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -2312,28 +2312,28 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="36"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="41"/>
     </row>
     <row r="35" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
@@ -2344,26 +2344,26 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
     </row>
     <row r="36" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
@@ -2372,24 +2372,24 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
     </row>
     <row r="37" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
@@ -2398,24 +2398,24 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
     </row>
     <row r="38" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
@@ -2497,6 +2497,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H29:X29"/>
+    <mergeCell ref="H30:X30"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="Q31:X31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="Q5:X5"/>
+    <mergeCell ref="M15:X15"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A10:X11"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="H19:X19"/>
+    <mergeCell ref="M18:X18"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="G35:X37"/>
     <mergeCell ref="A29:A30"/>
@@ -2513,34 +2541,6 @@
     <mergeCell ref="H27:X27"/>
     <mergeCell ref="H28:X28"/>
     <mergeCell ref="E26:X26"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="Q5:X5"/>
-    <mergeCell ref="M15:X15"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="A10:X11"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="H19:X19"/>
-    <mergeCell ref="M18:X18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H29:X29"/>
-    <mergeCell ref="H30:X30"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="Q31:X31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="B19:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.82677165354330717" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/resources/テンプレート.xlsx
+++ b/public/resources/テンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsui-h\github\html\frontend\public\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D16A8F-E6F2-419C-AA21-125F4EEC719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E900F182-AF30-4EB5-B3EA-317DD456C189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10455" yWindow="1110" windowWidth="13920" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -517,15 +517,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>**value24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>**created</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>**value25</t>
+    <t>**value6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**value7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -571,7 +571,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -708,26 +708,6 @@
       <top style="dotted">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
       <bottom style="dotted">
         <color auto="1"/>
       </bottom>
@@ -814,9 +794,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -824,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -850,63 +828,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -916,36 +924,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -958,77 +936,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B37AE41-FF5C-414A-A782-6451497C1DC2}">
   <dimension ref="A1:AO40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1364,16 +1324,16 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
+      <c r="Q2" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
     </row>
     <row r="3" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1442,22 +1402,22 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="49" t="s">
+      <c r="O5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
     </row>
     <row r="6" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -1472,21 +1432,21 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
       <c r="X6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1572,59 +1532,59 @@
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
       <c r="AO10" s="5"/>
     </row>
     <row r="11" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
     </row>
     <row r="12" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1692,12 +1652,12 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="9"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1708,40 +1668,40 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="50" t="s">
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="52"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="25"/>
     </row>
     <row r="16" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -1770,333 +1730,333 @@
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>1</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="63" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="58"/>
+    </row>
+    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37"/>
+    </row>
+    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>3</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="65"/>
-    </row>
-    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
-        <v>2</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39" t="s">
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="41"/>
+    </row>
+    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="36"/>
-    </row>
-    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31">
-        <v>3</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40" t="s">
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="41"/>
+    </row>
+    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
+        <v>4</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="41"/>
-    </row>
-    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="53"/>
+    </row>
+    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="41"/>
-    </row>
-    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
-        <v>4</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58" t="s">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="30"/>
+    </row>
+    <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="60"/>
-    </row>
-    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="66" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="30"/>
+    </row>
+    <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="68"/>
-    </row>
-    <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="66" t="s">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="33"/>
+    </row>
+    <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>5</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="68"/>
-    </row>
-    <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="48" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="55"/>
+    </row>
+    <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="47"/>
-    </row>
-    <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
-        <v>5</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="62"/>
-    </row>
-    <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="47"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="33"/>
     </row>
     <row r="27" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31">
+      <c r="A27" s="13">
         <v>6</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="53" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="46" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -2116,51 +2076,51 @@
       <c r="X27" s="45"/>
     </row>
     <row r="28" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
-      <c r="H28" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="47"/>
+      <c r="H28" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="33"/>
     </row>
     <row r="29" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="31">
+      <c r="A29" s="13">
         <v>7</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="24" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -2180,103 +2140,103 @@
       <c r="X29" s="45"/>
     </row>
     <row r="30" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="19" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="46" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="33"/>
+    </row>
+    <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>8</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="10">
+        <v>9</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="47"/>
-    </row>
-    <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
-        <v>8</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39" t="s">
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="61"/>
+    </row>
+    <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <v>10</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="11">
-        <v>9</v>
-      </c>
-      <c r="N31" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="41"/>
-    </row>
-    <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="26">
-        <v>10</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
       <c r="X32" s="41"/>
     </row>
     <row r="33" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2312,58 +2272,58 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
+      <c r="E34" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
       <c r="X34" s="41"/>
     </row>
     <row r="35" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="29" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
     </row>
     <row r="36" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
@@ -2372,24 +2332,24 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
     </row>
     <row r="37" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
@@ -2398,24 +2358,24 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
     </row>
     <row r="38" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
@@ -2496,22 +2456,14 @@
       <c r="X40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
+  <mergeCells count="54">
     <mergeCell ref="H29:X29"/>
     <mergeCell ref="H30:X30"/>
     <mergeCell ref="E31:L31"/>
     <mergeCell ref="Q31:X31"/>
     <mergeCell ref="N31:P31"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="Q5:X5"/>
-    <mergeCell ref="M15:X15"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E29:G29"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="A10:X11"/>
     <mergeCell ref="A19:A20"/>
@@ -2525,6 +2477,9 @@
     <mergeCell ref="E17:X17"/>
     <mergeCell ref="H19:X19"/>
     <mergeCell ref="M18:X18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E22:X22"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="G35:X37"/>
     <mergeCell ref="A29:A30"/>
@@ -2541,6 +2496,21 @@
     <mergeCell ref="H27:X27"/>
     <mergeCell ref="H28:X28"/>
     <mergeCell ref="E26:X26"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:X15"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="B19:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.82677165354330717" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
